--- a/src/co/jp/Part2_Presentation/UML/PETHOTEL_UML_.xlsx
+++ b/src/co/jp/Part2_Presentation/UML/PETHOTEL_UML_.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Class" sheetId="3" r:id="rId1"/>
@@ -977,7 +977,7 @@
             <a:pPr algn="ctr"/>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
-              <a:t>class Pet</a:t>
+              <a:t>abstract class Pet</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
           </a:p>
@@ -1143,7 +1143,7 @@
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
-              <a:t> eat() : void</a:t>
+              <a:t> abstract eat() : void</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
           </a:p>
@@ -1226,9 +1226,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>190602</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1238,7 +1238,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="3970020" y="4547235"/>
-          <a:ext cx="1920240" cy="1266825"/>
+          <a:ext cx="1920240" cy="1285240"/>
           <a:chOff x="4822371" y="1698172"/>
           <a:chExt cx="1935582" cy="1600200"/>
         </a:xfrm>
@@ -1383,10 +1383,22 @@
           </a:bodyPr>
           <a:lstStyle/>
           <a:p>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>+boolean</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1400"/>
+              <a:t>：</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1400"/>
+              <a:t>service dog</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
           </a:p>
           <a:p>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1606,7 +1618,11 @@
           </a:bodyPr>
           <a:lstStyle/>
           <a:p>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+              <a:t>+string:hair</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1660,15 +1676,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>14605</xdr:colOff>
+      <xdr:colOff>15240</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>138430</xdr:colOff>
+      <xdr:colOff>139065</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:rowOff>3175</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -1680,8 +1696,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4937125" y="3549650"/>
-          <a:ext cx="2196465" cy="1005205"/>
+          <a:off x="4937760" y="3549650"/>
+          <a:ext cx="2196465" cy="1006475"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1995,15 +2011,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>150495</xdr:colOff>
+      <xdr:colOff>151130</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:rowOff>140335</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>14605</xdr:colOff>
+      <xdr:colOff>15240</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:rowOff>3175</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -2015,8 +2031,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="4554855" y="3425825"/>
-          <a:ext cx="382270" cy="1129030"/>
+          <a:off x="4555490" y="3426460"/>
+          <a:ext cx="382270" cy="1129665"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2763,15 +2779,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>14605</xdr:colOff>
+      <xdr:colOff>15240</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>74295</xdr:rowOff>
+      <xdr:rowOff>74930</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>107950</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:rowOff>3175</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -2783,8 +2799,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4937125" y="3360420"/>
-          <a:ext cx="4756785" cy="1194435"/>
+          <a:off x="4937760" y="3361055"/>
+          <a:ext cx="4756150" cy="1195070"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3840,651 +3856,6 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>56515</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>155575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>128270</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="36" name="グループ化 12"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1092835" y="3984625"/>
-          <a:ext cx="2326005" cy="1963420"/>
-          <a:chOff x="4822371" y="1698172"/>
-          <a:chExt cx="1935582" cy="1242752"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp>
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="37" name="正方形/長方形 1"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4832994" y="1698172"/>
-            <a:ext cx="1924959" cy="1242752"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="zh-CN">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:defRPr>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp>
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="43" name="テキスト ボックス 2"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4844131" y="1709042"/>
-            <a:ext cx="1904800" cy="415926"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="zh-CN">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:defRPr>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
-              <a:t>class room</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp>
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="44" name="テキスト ボックス 10"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4833523" y="2127066"/>
-            <a:ext cx="1923368" cy="469065"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="zh-CN">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:defRPr>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-                <a:sym typeface="+mn-ea"/>
-              </a:rPr>
-              <a:t>-  no: String</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1600">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1600">
-                <a:effectLst/>
-                <a:sym typeface="+mn-ea"/>
-              </a:rPr>
-              <a:t>- isuse: boolean</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp>
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="45" name="テキスト ボックス 11"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4822371" y="2585987"/>
-            <a:ext cx="1926555" cy="350987"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="zh-CN">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:defRPr>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1600">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-          </a:p>
-          <a:p>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5470,9 +4841,9 @@
       <xdr:rowOff>150495</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>62865</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>155575</xdr:colOff>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>85090</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
@@ -5486,7 +4857,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17055465" y="4493895"/>
-          <a:ext cx="4953000" cy="1744345"/>
+          <a:ext cx="1616710" cy="2830195"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -5517,16 +4888,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>560070</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>73025</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>48895</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>598170</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>67310</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5535,7 +4906,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20448270" y="8578850"/>
+          <a:off x="17228820" y="9821545"/>
           <a:ext cx="2781300" cy="1285240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5803,16 +5174,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>102870</xdr:colOff>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>62865</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>73025</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>155575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>48895</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -5824,8 +5195,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="21838920" y="7776210"/>
-          <a:ext cx="169545" cy="802640"/>
+          <a:off x="18619470" y="8862060"/>
+          <a:ext cx="52705" cy="959485"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6242,6 +5613,14 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="2400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2.</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="2400">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
@@ -6449,16 +5828,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>248285</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>140335</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>224790</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>116840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>414020</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>86995</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6467,7 +5846,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2305685" y="9551035"/>
+          <a:off x="4339590" y="9889490"/>
           <a:ext cx="3594735" cy="1056005"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6637,16 +6016,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>363855</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>126365</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>92710</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>11430</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>108585</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>459740</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>132715</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6655,7 +6034,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2421255" y="6221730"/>
+          <a:off x="4241165" y="6607810"/>
           <a:ext cx="3762375" cy="1849755"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6795,7 +6174,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>check in</a:t>
+            <a:t>1.check in</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
             <a:solidFill>
@@ -6817,15 +6196,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>52705</xdr:colOff>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>85090</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>258445</xdr:colOff>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -6835,7 +6214,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20535900" y="6238240"/>
+          <a:off x="17197705" y="7324090"/>
           <a:ext cx="2948940" cy="1537970"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6975,7 +6354,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>check out</a:t>
+            <a:t>4.check out</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
             <a:solidFill>
@@ -7330,6 +6709,14 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="2400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3.</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="2400">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
@@ -7537,29 +6924,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>187960</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>638810</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>150495</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>285115</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>92710</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="25" name="コネクタ: カギ線 129"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="1"/>
-          <a:endCxn id="20" idx="0"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="4302760" y="4493895"/>
-          <a:ext cx="6955155" cy="1727835"/>
+          <a:off x="6125210" y="4493895"/>
+          <a:ext cx="5132705" cy="2113915"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -8040,15 +7424,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>574040</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>478790</xdr:colOff>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>53975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>140970</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>156845</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -8058,7 +7442,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2631440" y="14531975"/>
+          <a:off x="3907790" y="15074900"/>
           <a:ext cx="2995930" cy="1731645"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8220,16 +7604,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>119380</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>490855</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>71755</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>138430</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>624205</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>90805</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8238,7 +7622,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19973925" y="14235430"/>
+          <a:off x="17635855" y="14368780"/>
           <a:ext cx="2876550" cy="1285875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8559,16 +7943,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>108585</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>90805</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>102870</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>67310</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>578485</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>109855</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>513715</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -8579,9 +7963,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="21368385" y="9863455"/>
-          <a:ext cx="469900" cy="1466850"/>
+        <a:xfrm>
+          <a:off x="18619470" y="11106785"/>
+          <a:ext cx="410845" cy="852805"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8612,16 +7996,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>677545</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>108585</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>638810</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>132715</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>187325</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>140335</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>653415</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>116840</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -8632,9 +8016,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4106545" y="8071485"/>
-          <a:ext cx="195580" cy="1479550"/>
+        <a:xfrm>
+          <a:off x="6125210" y="8457565"/>
+          <a:ext cx="14605" cy="1431925"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8718,16 +8102,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>677545</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>109855</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>86995</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>60325</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>111760</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>653415</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -8738,9 +8122,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4106545" y="10606405"/>
-          <a:ext cx="68580" cy="1449705"/>
+        <a:xfrm flipH="1">
+          <a:off x="5264150" y="10945495"/>
+          <a:ext cx="875665" cy="1267460"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8877,16 +8261,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>685165</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>111760</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>399415</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>128270</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>179705</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>528320</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8895,7 +8279,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2056765" y="12056110"/>
+          <a:off x="3142615" y="12212955"/>
           <a:ext cx="4243705" cy="1696720"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
@@ -9049,16 +8433,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>10795</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>179705</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>60325</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>607695</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -9069,9 +8453,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4125595" y="13752830"/>
-          <a:ext cx="49530" cy="778510"/>
+        <a:xfrm>
+          <a:off x="5264150" y="13909675"/>
+          <a:ext cx="144145" cy="1165225"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9102,16 +8486,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>173355</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>178435</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>578485</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>83185</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9120,7 +8504,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19246850" y="11330940"/>
+          <a:off x="16908780" y="11959590"/>
           <a:ext cx="4243705" cy="1696720"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
@@ -9274,16 +8658,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>108585</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>178435</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>513715</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>83185</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>151765</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>119380</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>557530</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>71755</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -9295,8 +8679,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21368385" y="13027660"/>
-          <a:ext cx="43180" cy="1207770"/>
+          <a:off x="19030315" y="13656310"/>
+          <a:ext cx="43815" cy="712470"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9328,27 +8712,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>320675</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>138430</xdr:rowOff>
+      <xdr:colOff>134620</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>90805</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>151765</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>557530</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>64135</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="51" name="直線矢印コネクタ 135"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="37" idx="2"/>
+          <a:endCxn id="6" idx="6"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="14722475" y="15521305"/>
-          <a:ext cx="6689090" cy="1655445"/>
+          <a:off x="14536420" y="15654655"/>
+          <a:ext cx="4537710" cy="1602105"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9432,16 +8817,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>127635</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>59055</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>528320</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
+      <xdr:colOff>579755</xdr:colOff>
       <xdr:row>95</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>64135</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -9453,13 +8838,728 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6299835" y="12908280"/>
-          <a:ext cx="7995285" cy="4347845"/>
+          <a:off x="7386320" y="13056870"/>
+          <a:ext cx="6909435" cy="4199890"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 10738"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>470535</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>40005</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 131"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="822960" y="4162425"/>
+          <a:ext cx="3762375" cy="1849755"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>0.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>打印房间信息</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>78105</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="正方形/長方形 131"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20593050" y="7458075"/>
+          <a:ext cx="3762375" cy="1849755"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>意见</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>43815</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>157480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>376555</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>16510</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="正方形/長方形 131"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24732615" y="7577455"/>
+          <a:ext cx="3761740" cy="1849755"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>6.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>成为会员</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" sz="2400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>149860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>284480</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>14605</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="コネクタ: カギ線 129"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="1"/>
+          <a:endCxn id="15" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="4584700" y="4493260"/>
+          <a:ext cx="6672580" cy="588645"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 49995"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>652780</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>555625</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>157480</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="コネクタ: カギ線 129"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="28" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="20323175" y="1284605"/>
+          <a:ext cx="3081655" cy="9504045"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>556895</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>530860</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="コネクタ: カギ線 129"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="27" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="18265140" y="3246755"/>
+          <a:ext cx="2962275" cy="5460365"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln w="19050">
           <a:solidFill>
@@ -9748,8 +9848,8 @@
   <sheetPr/>
   <dimension ref="D2:BF82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AP47" sqref="AP47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AG25" sqref="AG25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.4" defaultRowHeight="14.25"/>
@@ -13590,8 +13690,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="AB48" sqref="AB48"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AK63" sqref="AK63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/src/co/jp/Part2_Presentation/UML/PETHOTEL_UML_.xlsx
+++ b/src/co/jp/Part2_Presentation/UML/PETHOTEL_UML_.xlsx
@@ -33,8 +33,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -620,7 +620,7 @@
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -629,7 +629,7 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3519,7 +3519,7 @@
             <a:pPr algn="ctr"/>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
-              <a:t>class Hotel</a:t>
+              <a:t>class Presentation</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
           </a:p>
@@ -3805,7 +3805,7 @@
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
                 <a:sym typeface="+mn-ea"/>
               </a:rPr>
-              <a:t>+  print(): void</a:t>
+              <a:t>+  c: calendar</a:t>
             </a:r>
             <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1600">
               <a:effectLst/>
@@ -3833,7 +3833,7 @@
                 <a:effectLst/>
                 <a:sym typeface="+mn-ea"/>
               </a:rPr>
-              <a:t>+  order(): void</a:t>
+              <a:t>+  vip: List&lt;String&gt;</a:t>
             </a:r>
             <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1600">
               <a:effectLst/>
@@ -3844,7 +3844,7 @@
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
                 <a:sym typeface="+mn-ea"/>
               </a:rPr>
-              <a:t>+ checkout(): void</a:t>
+              <a:t>+ claim.txt</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
           </a:p>
@@ -9849,7 +9849,7 @@
   <dimension ref="D2:BF82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG25" sqref="AG25"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.4" defaultRowHeight="14.25"/>
